--- a/Config3.xlsx
+++ b/Config3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\aceshiny.bmrn.com\fr904103\current\qscsm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drenn\Desktop\lovingr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D280B792-54C0-4D1F-A625-ACE48913294E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51FBCAF-30AB-4919-86A3-3E594F54A57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="607" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="13800" tabRatio="607" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program Configuration Parameter" sheetId="1" r:id="rId1"/>
@@ -556,10 +556,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -574,10 +574,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -589,19 +586,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,17 +978,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.87890625" customWidth="1"/>
+    <col min="2" max="2" width="21.41015625" customWidth="1"/>
+    <col min="3" max="3" width="28.703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5859375" customWidth="1"/>
+    <col min="5" max="5" width="31.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1016,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -1033,7 +1021,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -1050,7 +1038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -1067,7 +1055,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -1081,7 +1069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -1110,19 +1098,19 @@
       <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.41015625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="89.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.1171875" customWidth="1"/>
+    <col min="4" max="4" width="16.29296875" customWidth="1"/>
+    <col min="5" max="5" width="22.1171875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.703125" customWidth="1"/>
+    <col min="8" max="8" width="9.5859375" customWidth="1"/>
+    <col min="10" max="10" width="89.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1150,18 +1138,18 @@
       <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B2" s="13"/>
+    <row r="2" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B2" s="10"/>
       <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
@@ -1185,11 +1173,11 @@
         <v>(r==0 &amp;n&gt;=2)</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B3" s="13"/>
+    <row r="3" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B3" s="10"/>
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1214,11 +1202,11 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B4" s="13"/>
+    <row r="4" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B4" s="10"/>
       <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
@@ -1243,11 +1231,11 @@
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B5" s="13"/>
+    <row r="5" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B5" s="10"/>
       <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
@@ -1271,11 +1259,11 @@
         <v>diff_pct&lt; -20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B6" s="13"/>
+    <row r="6" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
@@ -1296,7 +1284,7 @@
         <f>CONCATENATE(F6, "&lt;", H6)</f>
         <v>p_value&lt;0.1</v>
       </c>
-      <c r="J6" s="10" t="str">
+      <c r="J6" t="str">
         <f>CONCATENATE("(", I3," &amp; ", I5, ") &amp; ( ", I6, " | ", I2, "  | ", I4)</f>
         <v>(abs(diff_pct)/100*n&gt;1 &amp; diff_pct&lt; -20) &amp; ( p_value&lt;0.1 | (r==0 &amp;n&gt;=2)  | r_60&gt;=1</v>
       </c>
@@ -1304,11 +1292,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B7" s="13"/>
+    <row r="7" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
@@ -1332,11 +1320,11 @@
         <v>(r==0 &amp;n&gt;=2)</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B8" s="13"/>
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1367,11 +1355,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B9" s="13"/>
+    <row r="9" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1392,7 +1380,7 @@
         <f>CONCATENATE(F9, "&gt;", H9)</f>
         <v>diff_pct&gt;20</v>
       </c>
-      <c r="J9" s="10" t="str">
+      <c r="J9" t="str">
         <f>CONCATENATE(I8," &amp;",I9, " &amp; ", I11)</f>
         <v>abs(diff_pct)/100*n&gt;1 &amp;diff_pct&gt;20 &amp; p_value&lt;0.1</v>
       </c>
@@ -1400,11 +1388,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B10" s="13"/>
+    <row r="10" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B10" s="10"/>
       <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1426,11 +1414,11 @@
         <v>diff_pct&lt; -20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B11" s="13"/>
+    <row r="11" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B11" s="10"/>
       <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
@@ -1452,11 +1440,11 @@
         <v>p_value&lt;0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B12" s="13"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A12" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B12" s="10"/>
       <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1480,11 +1468,11 @@
         <v>site_cnt &gt;=2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B13" s="13"/>
+    <row r="13" spans="1:11" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A13" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B13" s="10"/>
       <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1508,11 +1496,11 @@
         <v>diff_cnt &lt; -2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B14" s="13"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A14" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B14" s="10"/>
       <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
@@ -1536,11 +1524,11 @@
         <v>foldchange &lt;-2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B15" s="13"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A15" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1561,7 +1549,7 @@
         <f>CONCATENATE(F15, "&lt; ", H15)</f>
         <v>adjusted_p_value&lt; 0.05</v>
       </c>
-      <c r="J15" s="10" t="str">
+      <c r="J15" t="str">
         <f>CONCATENATE(I15," &amp; ",  I13," &amp; ", I14)</f>
         <v>adjusted_p_value&lt; 0.05 &amp; diff_cnt &lt; -2 &amp; foldchange &lt;-2.5</v>
       </c>
@@ -1569,11 +1557,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B16" s="13"/>
+    <row r="16" spans="1:11" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A16" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
@@ -1597,11 +1585,11 @@
         <v>site_cnt &gt;=2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B17" s="13"/>
+    <row r="17" spans="1:11" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A17" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="4" t="s">
         <v>24</v>
       </c>
@@ -1625,11 +1613,11 @@
         <v>diff_cnt &lt; -2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B18" s="13"/>
+    <row r="18" spans="1:11" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A18" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B18" s="10"/>
       <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
@@ -1652,7 +1640,7 @@
         <f>CONCATENATE(F18, " &gt; ", H18)</f>
         <v>diff_cnt &gt; 2</v>
       </c>
-      <c r="J18" s="10" t="str">
+      <c r="J18" t="str">
         <f>CONCATENATE(I16,  " &amp; ", I21," &amp; ",  I18," &amp; ", I20)</f>
         <v>site_cnt &gt;=2 &amp; adjusted_p_value&lt; 0.05 &amp; diff_cnt &gt; 2 &amp; foldchange &gt;2.5</v>
       </c>
@@ -1660,11 +1648,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B19" s="13"/>
+    <row r="19" spans="1:11" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A19" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B19" s="10"/>
       <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
@@ -1688,11 +1676,11 @@
         <v>foldchange &lt;-2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B20" s="13"/>
+    <row r="20" spans="1:11" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A20" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B20" s="10"/>
       <c r="C20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1715,7 +1703,7 @@
         <f>CONCATENATE(F20, " &gt;", H20)</f>
         <v>foldchange &gt;2.5</v>
       </c>
-      <c r="J20" s="10" t="str">
+      <c r="J20" t="str">
         <f>CONCATENATE(I16, " &amp; ", I21," &amp; ",  I17," &amp; ", I19)</f>
         <v>site_cnt &gt;=2 &amp; adjusted_p_value&lt; 0.05 &amp; diff_cnt &lt; -2 &amp; foldchange &lt;-2.5</v>
       </c>
@@ -1723,11 +1711,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B21" s="13"/>
+    <row r="21" spans="1:11" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A21" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B21" s="10"/>
       <c r="C21" s="4" t="s">
         <v>24</v>
       </c>
@@ -1749,11 +1737,11 @@
         <v>adjusted_p_value&lt; 0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B22" s="13"/>
+    <row r="22" spans="1:11" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A22" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B22" s="10"/>
       <c r="C22" s="4" t="s">
         <v>24</v>
       </c>
@@ -1777,11 +1765,11 @@
         <v>n&gt;=2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B23" s="13"/>
+    <row r="23" spans="1:11" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A23" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B23" s="10"/>
       <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
@@ -1805,11 +1793,11 @@
         <v>diff_avg &gt;40</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B24" s="13"/>
+    <row r="24" spans="1:11" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A24" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B24" s="10"/>
       <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
@@ -1830,7 +1818,7 @@
         <f>CONCATENATE(F24, "&lt;", H24)</f>
         <v>p_value&lt;0.05</v>
       </c>
-      <c r="J24" s="10" t="str">
+      <c r="J24" t="str">
         <f>CONCATENATE(I23, " &amp; ", I24, " &amp; ", I22)</f>
         <v>diff_avg &gt;40 &amp; p_value&lt;0.05 &amp; n&gt;=2</v>
       </c>
@@ -1838,11 +1826,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B25" s="13"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A25" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B25" s="10"/>
       <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
@@ -1864,11 +1852,11 @@
         <v>site_value_cnt &gt; 8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B26" s="13"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A26" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B26" s="10"/>
       <c r="C26" s="4" t="s">
         <v>37</v>
       </c>
@@ -1890,11 +1878,11 @@
         <v>oddsRatio &gt; 4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B27" s="13"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A27" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B27" s="10"/>
       <c r="C27" s="4" t="s">
         <v>37</v>
       </c>
@@ -1916,11 +1904,11 @@
         <v>site_value_pct &gt; 15</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B28" s="13"/>
+    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B28" s="10"/>
       <c r="C28" s="4" t="s">
         <v>37</v>
       </c>
@@ -1941,7 +1929,7 @@
         <f>CONCATENATE(F28, "&gt;", H28)</f>
         <v>diff_pct&gt;10</v>
       </c>
-      <c r="J28" s="10" t="str">
+      <c r="J28" t="str">
         <f>CONCATENATE(I29," &amp; ", I25, " &amp; ", I26, " &amp; ", I27,   " &amp; ", I28)</f>
         <v>p_value &lt; 0.05 &amp; site_value_cnt &gt; 8 &amp; oddsRatio &gt; 4 &amp; site_value_pct &gt; 15 &amp; diff_pct&gt;10</v>
       </c>
@@ -1949,11 +1937,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B29" s="13"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A29" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B29" s="10"/>
       <c r="C29" s="4" t="s">
         <v>37</v>
       </c>
@@ -1975,11 +1963,11 @@
         <v>p_value &lt; 0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B30" s="13"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A30" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B30" s="10"/>
       <c r="C30" s="4" t="s">
         <v>37</v>
       </c>
@@ -2001,11 +1989,11 @@
         <v>site_value_cnt &gt; 8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B31" s="13"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A31" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B31" s="10"/>
       <c r="C31" s="4" t="s">
         <v>37</v>
       </c>
@@ -2027,11 +2015,11 @@
         <v>oddsRatio &gt; 4</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B32" s="13"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A32" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B32" s="10"/>
       <c r="C32" s="4" t="s">
         <v>37</v>
       </c>
@@ -2053,11 +2041,11 @@
         <v>site_value_pct &gt; 10</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B33" s="13"/>
+    <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B33" s="10"/>
       <c r="C33" s="4" t="s">
         <v>37</v>
       </c>
@@ -2078,7 +2066,7 @@
         <f>CONCATENATE(F33, "&gt;", H33)</f>
         <v>diff_pct&gt;10</v>
       </c>
-      <c r="J33" s="10" t="str">
+      <c r="J33" t="str">
         <f>CONCATENATE(I34," &amp; ", I30, " &amp; ", I31, " &amp; ", I32,   " &amp; ", I33)</f>
         <v>p_value &lt; 0.05 &amp; site_value_cnt &gt; 8 &amp; oddsRatio &gt; 4 &amp; site_value_pct &gt; 10 &amp; diff_pct&gt;10</v>
       </c>
@@ -2086,11 +2074,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B34" s="13"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A34" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B34" s="10"/>
       <c r="C34" s="4" t="s">
         <v>37</v>
       </c>
@@ -2112,11 +2100,11 @@
         <v>p_value &lt; 0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B35" s="13"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A35" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B35" s="10"/>
       <c r="C35" s="4" t="s">
         <v>37</v>
       </c>
@@ -2138,11 +2126,11 @@
         <v>site_value_cnt &gt; 8</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B36" s="13"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A36" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B36" s="10"/>
       <c r="C36" s="4" t="s">
         <v>37</v>
       </c>
@@ -2164,11 +2152,11 @@
         <v>oddsRatio &gt; 4</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B37" s="13"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A37" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B37" s="10"/>
       <c r="C37" s="4" t="s">
         <v>37</v>
       </c>
@@ -2190,11 +2178,11 @@
         <v>site_value_pct &gt; 33</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B38" s="13"/>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B38" s="10"/>
       <c r="C38" s="4" t="s">
         <v>37</v>
       </c>
@@ -2215,7 +2203,7 @@
         <f>CONCATENATE(F38, "&gt;", H38)</f>
         <v>diff_pct&gt;10</v>
       </c>
-      <c r="J38" s="10" t="str">
+      <c r="J38" t="str">
         <f>CONCATENATE(I39," &amp; ", I35, " &amp; ", I36, " &amp; ", I37,   " &amp; ", I38)</f>
         <v>p_value &lt; 0.05 &amp; site_value_cnt &gt; 8 &amp; oddsRatio &gt; 4 &amp; site_value_pct &gt; 33 &amp; diff_pct&gt;10</v>
       </c>
@@ -2223,11 +2211,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B39" s="13"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A39" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B39" s="10"/>
       <c r="C39" s="4" t="s">
         <v>37</v>
       </c>
@@ -2249,15 +2237,15 @@
         <v>p_value &lt; 0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="16" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A40" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E40" s="4" t="s">
@@ -2274,17 +2262,16 @@
         <f>CONCATENATE("abs(",F42,")/100*",F40,"&gt;",H40)</f>
         <v>abs(diff_pct)/100*n&gt;15</v>
       </c>
-      <c r="J40"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="16" t="s">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A41" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -2296,17 +2283,16 @@
       <c r="G41" s="5"/>
       <c r="H41" s="4"/>
       <c r="I41" s="5"/>
-      <c r="J41"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="16" t="s">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A42" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -2331,15 +2317,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="16" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A43" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -2356,17 +2342,16 @@
         <f>CONCATENATE(F43, "&lt;", H43)</f>
         <v>p_value&lt;0.05</v>
       </c>
-      <c r="J43"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="16" t="s">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A44" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -2383,17 +2368,16 @@
         <f>CONCATENATE("abs(",F46,")/100*",F44,"&gt;",H44)</f>
         <v>abs(diff_pct)/100*n&gt;15</v>
       </c>
-      <c r="J44"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="16" t="s">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A45" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -2405,17 +2389,16 @@
       <c r="G45" s="5"/>
       <c r="H45" s="4"/>
       <c r="I45" s="5"/>
-      <c r="J45"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="16" t="s">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A46" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -2440,15 +2423,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
-        <v>165306</v>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="16" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A47" s="9">
+        <v>165306</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -2465,7 +2448,6 @@
         <f>CONCATENATE(F47, "&lt;", H47)</f>
         <v>p_value&lt;0.05</v>
       </c>
-      <c r="J47"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J47" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
@@ -2478,26 +2460,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="36.703125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12" style="7" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.703125" customWidth="1"/>
+    <col min="2" max="2" width="20.41015625" customWidth="1"/>
+    <col min="3" max="3" width="13.5859375" customWidth="1"/>
+    <col min="4" max="4" width="16.5859375" customWidth="1"/>
+    <col min="5" max="5" width="28.29296875" customWidth="1"/>
+    <col min="6" max="6" width="15.29296875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="17.87890625" customWidth="1"/>
+    <col min="9" max="9" width="27.41015625" customWidth="1"/>
+    <col min="10" max="10" width="23.5859375" customWidth="1"/>
+    <col min="11" max="11" width="24.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>46</v>
       </c>
@@ -2507,7 +2489,7 @@
       <c r="C1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="6" t="s">
         <v>101</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -2535,7 +2517,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>57</v>
       </c>
@@ -2543,7 +2525,7 @@
       <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E2" s="4">
@@ -2569,7 +2551,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
@@ -2577,7 +2559,7 @@
       <c r="C3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="4" t="s">
         <v>97</v>
       </c>
       <c r="E3" s="4">
@@ -2603,7 +2585,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>57</v>
       </c>
@@ -2611,7 +2593,7 @@
       <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E4" s="4">
@@ -2635,7 +2617,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>63</v>
       </c>
@@ -2643,7 +2625,7 @@
       <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E5" s="4">
@@ -2669,7 +2651,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>63</v>
       </c>
@@ -2677,7 +2659,7 @@
       <c r="C6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E6" s="4">
@@ -2696,14 +2678,14 @@
       <c r="J6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>65</v>
       </c>
@@ -2711,7 +2693,7 @@
       <c r="C7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="4">
         <v>1</v>
       </c>
@@ -2735,72 +2717,72 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="13">
         <v>-1</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="13">
         <v>1</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="18">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13">
         <v>1</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="13">
         <v>1</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18" t="s">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>105</v>
       </c>
@@ -2808,7 +2790,7 @@
       <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E10" s="4">
@@ -2834,7 +2816,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>105</v>
       </c>
@@ -2842,7 +2824,7 @@
       <c r="C11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E11" s="4">
@@ -2868,7 +2850,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>105</v>
       </c>
@@ -2876,7 +2858,7 @@
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="4" t="s">
         <v>108</v>
       </c>
       <c r="E12" s="4">
@@ -2900,7 +2882,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>112</v>
       </c>
@@ -2908,7 +2890,7 @@
       <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E13" s="4">
@@ -2934,7 +2916,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>112</v>
       </c>
@@ -2942,7 +2924,7 @@
       <c r="C14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E14" s="4">
@@ -2979,20 +2961,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="69.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="105.140625" customWidth="1"/>
-    <col min="1023" max="1024" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5859375" customWidth="1"/>
+    <col min="2" max="2" width="69.87890625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1171875" customWidth="1"/>
+    <col min="4" max="4" width="105.1171875" customWidth="1"/>
+    <col min="1023" max="1024" width="11.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -3006,11 +2988,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>115</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3021,11 +3003,11 @@
         <v>/sassys/cdm/cdmdev/pegpal/pku/165306/csm202201x/datamisc/csmaesttrt.sas7bdat</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>115</v>
       </c>
       <c r="C3" t="s">
@@ -3036,11 +3018,11 @@
         <v>/sassys/cdm/cdmdev/pegpal/pku/165306/csm202201x/datamisc/csmvs.sas7bdat</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>115</v>
       </c>
       <c r="C4" t="s">
@@ -3051,11 +3033,11 @@
         <v>/sassys/cdm/cdmdev/pegpal/pku/165306/csm202201x/datamisc/csmmdosest.sas7bdat</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>115</v>
       </c>
       <c r="C5" t="s">
@@ -3066,11 +3048,11 @@
         <v>/sassys/cdm/cdmdev/pegpal/pku/165306/csm202201x/datamisc/csmaetrt.sas7bdat</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>115</v>
       </c>
       <c r="C6" t="s">
@@ -3081,11 +3063,11 @@
         <v>/sassys/cdm/cdmdev/pegpal/pku/165306/csm202201x/datamisc/csm_aecnt.csv</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>115</v>
       </c>
       <c r="C7" t="s">
@@ -3096,11 +3078,11 @@
         <v>/sassys/cdm/cdmdev/pegpal/pku/165306/csm202201x/datamisc/csmdiet.sas7bdat</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>115</v>
       </c>
       <c r="C8" t="s">
@@ -3111,9 +3093,8 @@
         <v>/sassys/cdm/cdmdev/pegpal/pku/165306/csm202201x/datamisc/csmpt.sas7bdat</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="8"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B9" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/Config3.xlsx
+++ b/Config3.xlsx
@@ -705,7 +705,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.41"/>
@@ -828,13 +828,13 @@
   </sheetPr>
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.03125" defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="24.0546875" defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
@@ -1232,7 +1232,7 @@
         <v>diff_cnt &lt; -2</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>165306</v>
       </c>
@@ -1256,8 +1256,8 @@
         <v>-2.5</v>
       </c>
       <c r="I14" s="9" t="str">
-        <f aca="false">CONCATENATE(F14, " &lt;", H14)</f>
-        <v>foldchange &lt;-2.5</v>
+        <f aca="false">CONCATENATE(F14, " &lt; ", H14)</f>
+        <v>foldchange &lt; -2.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="J15" s="0" t="str">
         <f aca="false">CONCATENATE(I15," &amp; ",  I13," &amp; ", I14)</f>
-        <v>adjusted_p_value&lt; 0.05 &amp; diff_cnt &lt; -2 &amp; foldchange &lt;-2.5</v>
+        <v>adjusted_p_value&lt; 0.05 &amp; diff_cnt &lt; -2 &amp; foldchange &lt; -2.5</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>-1</v>
@@ -1378,13 +1378,13 @@
       </c>
       <c r="J18" s="0" t="str">
         <f aca="false">CONCATENATE(I16,  " &amp; ", I21," &amp; ",  I18," &amp; ", I20)</f>
-        <v>site_cnt &gt;=2 &amp; adjusted_p_value&lt; 0.05 &amp; diff_cnt &gt; 2 &amp; foldchange &gt;2.5</v>
+        <v>site_cnt &gt;=2 &amp; adjusted_p_value&lt; 0.05 &amp; diff_cnt &gt; 2 &amp; foldchange &gt; 2.5</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="28.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <v>165306</v>
       </c>
@@ -1408,11 +1408,11 @@
         <v>-2.5</v>
       </c>
       <c r="I19" s="9" t="str">
-        <f aca="false">CONCATENATE(F19, " &lt;", H19)</f>
-        <v>foldchange &lt;-2.5</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="28.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">CONCATENATE(F19, " &lt; ", H19)</f>
+        <v>foldchange &lt; -2.5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <v>165306</v>
       </c>
@@ -1436,12 +1436,12 @@
         <v>2.5</v>
       </c>
       <c r="I20" s="9" t="str">
-        <f aca="false">CONCATENATE(F20, " &gt;", H20)</f>
-        <v>foldchange &gt;2.5</v>
+        <f aca="false">CONCATENATE(F20, " &gt; ", H20)</f>
+        <v>foldchange &gt; 2.5</v>
       </c>
       <c r="J20" s="0" t="str">
         <f aca="false">CONCATENATE(I16, " &amp; ", I21," &amp; ",  I17," &amp; ", I19)</f>
-        <v>site_cnt &gt;=2 &amp; adjusted_p_value&lt; 0.05 &amp; diff_cnt &lt; -2 &amp; foldchange &lt;-2.5</v>
+        <v>site_cnt &gt;=2 &amp; adjusted_p_value&lt; 0.05 &amp; diff_cnt &lt; -2 &amp; foldchange &lt; -2.5</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>-1</v>
@@ -1973,7 +1973,7 @@
         <v>p_value &lt; 0.05</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
         <v>165306</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>abs(diff_pct)/100*n&gt;15</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
         <v>165306</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
         <v>165306</v>
       </c>
@@ -2209,19 +2209,19 @@
       <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.7421875" defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="36.77734375" defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2715,10 +2715,10 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01171875" defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.03125" defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="69.88"/>
